--- a/BC4400/Lecture2/Homework_0_Suggested_Solutions_Workbook.xlsx
+++ b/BC4400/Lecture2/Homework_0_Suggested_Solutions_Workbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny547-my.sharepoint.com/personal/dailoae_gradcenter_cuny_edu/Documents/Documents/Work/Teaching/_BK_College/HW0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400/Lecture2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2971C846-7071-4EC7-AA96-59969A8B6580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{2971C846-7071-4EC7-AA96-59969A8B6580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C2FA03-12C0-4F18-A490-8DD6B5FF533D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{53A7908B-9D74-4EB3-936A-B59CD547BAB7}"/>
   </bookViews>
@@ -21,9 +21,8 @@
     <sheet name="Weights" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Grades!$Q$2:$Q$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Grades!$Q$2:$Q$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Grades!$Q$2:$Q$21</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Grades!$R$2:$R$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Grades!$R$2:$R$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -197,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +248,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -263,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -306,13 +312,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -343,6 +420,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -686,7 +773,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Grades!$W$3:$W$8</c:f>
+              <c:f>Grades!$X$3:$X$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -712,7 +799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Grades!$X$3:$X$8</c:f>
+              <c:f>Grades!$Y$3:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -987,7 +1074,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Grades!$W$3:$W$8</c:f>
+              <c:f>Grades!$X$3:$X$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1013,7 +1100,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Grades!$X$3:$X$8</c:f>
+              <c:f>Grades!$Y$3:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3956,13 +4043,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>431427</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>101972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>168089</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
@@ -4001,8 +4088,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12388103" y="5054972"/>
-              <a:ext cx="4577604" cy="2688294"/>
+              <a:off x="12471027" y="5054972"/>
+              <a:ext cx="5070662" cy="2688294"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4034,13 +4121,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>420220</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>146796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>151278</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>32496</xdr:rowOff>
@@ -4448,19 +4535,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>VLOOKUP($B3,Grades!$N:$R,2,0)</f>
+        <f>VLOOKUP($B3,Grades!$O:$S,2,0)</f>
         <v>Noah</v>
       </c>
       <c r="D3" s="3">
-        <f>VLOOKUP($B3,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B3,Grades!$O:$S,3,0)</f>
         <v>9904</v>
       </c>
       <c r="E3" s="3">
-        <f>VLOOKUP($B3,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B3,Grades!$O:$S,4,0)</f>
         <v>92.06</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f>VLOOKUP($B3,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B3,Grades!$O:$S,5,0)</f>
         <v>A</v>
       </c>
     </row>
@@ -4469,19 +4556,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>VLOOKUP(B4,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B4,Grades!O:S,2,0)</f>
         <v>Harper</v>
       </c>
       <c r="D4" s="3">
-        <f>VLOOKUP($B4,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B4,Grades!$O:$S,3,0)</f>
         <v>7976</v>
       </c>
       <c r="E4" s="3">
-        <f>VLOOKUP($B4,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B4,Grades!$O:$S,4,0)</f>
         <v>90.68</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f>VLOOKUP($B4,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B4,Grades!$O:$S,5,0)</f>
         <v>A</v>
       </c>
     </row>
@@ -4490,19 +4577,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>VLOOKUP(B5,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B5,Grades!O:S,2,0)</f>
         <v>James</v>
       </c>
       <c r="D5" s="3">
-        <f>VLOOKUP($B5,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B5,Grades!$O:$S,3,0)</f>
         <v>8116</v>
       </c>
       <c r="E5" s="3">
-        <f>VLOOKUP($B5,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B5,Grades!$O:$S,4,0)</f>
         <v>87.86999999999999</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>VLOOKUP($B5,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B5,Grades!$O:$S,5,0)</f>
         <v>A</v>
       </c>
     </row>
@@ -4511,19 +4598,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>VLOOKUP(B6,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B6,Grades!O:S,2,0)</f>
         <v>Liam</v>
       </c>
       <c r="D6" s="3">
-        <f>VLOOKUP($B6,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B6,Grades!$O:$S,3,0)</f>
         <v>7892</v>
       </c>
       <c r="E6" s="3">
-        <f>VLOOKUP($B6,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B6,Grades!$O:$S,4,0)</f>
         <v>84.37</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>VLOOKUP($B6,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B6,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4532,19 +4619,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>VLOOKUP(B7,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B7,Grades!O:S,2,0)</f>
         <v>Amelia</v>
       </c>
       <c r="D7" s="3">
-        <f>VLOOKUP($B7,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B7,Grades!$O:$S,3,0)</f>
         <v>7249</v>
       </c>
       <c r="E7" s="3">
-        <f>VLOOKUP($B7,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B7,Grades!$O:$S,4,0)</f>
         <v>84.039999999999992</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f>VLOOKUP($B7,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B7,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4553,19 +4640,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>VLOOKUP(B8,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B8,Grades!O:S,2,0)</f>
         <v>Alexander</v>
       </c>
       <c r="D8" s="3">
-        <f>VLOOKUP($B8,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B8,Grades!$O:$S,3,0)</f>
         <v>9369</v>
       </c>
       <c r="E8" s="3">
-        <f>VLOOKUP($B8,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B8,Grades!$O:$S,4,0)</f>
         <v>83.42</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>VLOOKUP($B8,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B8,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4574,19 +4661,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>VLOOKUP(B9,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B9,Grades!O:S,2,0)</f>
         <v>Evelyn</v>
       </c>
       <c r="D9" s="3">
-        <f>VLOOKUP($B9,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B9,Grades!$O:$S,3,0)</f>
         <v>9128</v>
       </c>
       <c r="E9" s="3">
-        <f>VLOOKUP($B9,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B9,Grades!$O:$S,4,0)</f>
         <v>83.399999999999991</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f>VLOOKUP($B9,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B9,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4595,19 +4682,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>VLOOKUP(B10,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B10,Grades!O:S,2,0)</f>
         <v>William</v>
       </c>
       <c r="D10" s="3">
-        <f>VLOOKUP($B10,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B10,Grades!$O:$S,3,0)</f>
         <v>7442</v>
       </c>
       <c r="E10" s="3">
-        <f>VLOOKUP($B10,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B10,Grades!$O:$S,4,0)</f>
         <v>82.210000000000008</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f>VLOOKUP($B10,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B10,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4616,19 +4703,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>VLOOKUP(B11,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B11,Grades!O:S,2,0)</f>
         <v>Sophia</v>
       </c>
       <c r="D11" s="3">
-        <f>VLOOKUP($B11,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B11,Grades!$O:$S,3,0)</f>
         <v>8205</v>
       </c>
       <c r="E11" s="3">
-        <f>VLOOKUP($B11,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B11,Grades!$O:$S,4,0)</f>
         <v>81.429999999999993</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>VLOOKUP($B11,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B11,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4637,19 +4724,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>VLOOKUP(B12,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B12,Grades!O:S,2,0)</f>
         <v>Isabella</v>
       </c>
       <c r="D12" s="3">
-        <f>VLOOKUP($B12,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B12,Grades!$O:$S,3,0)</f>
         <v>9510</v>
       </c>
       <c r="E12" s="3">
-        <f>VLOOKUP($B12,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B12,Grades!$O:$S,4,0)</f>
         <v>81.239999999999995</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>VLOOKUP($B12,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B12,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4658,19 +4745,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>VLOOKUP(B13,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B13,Grades!O:S,2,0)</f>
         <v>Benjamin</v>
       </c>
       <c r="D13" s="3">
-        <f>VLOOKUP($B13,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B13,Grades!$O:$S,3,0)</f>
         <v>9817</v>
       </c>
       <c r="E13" s="3">
-        <f>VLOOKUP($B13,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B13,Grades!$O:$S,4,0)</f>
         <v>81.220000000000013</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>VLOOKUP($B13,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B13,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4679,19 +4766,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>VLOOKUP(B14,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B14,Grades!O:S,2,0)</f>
         <v>Henry</v>
       </c>
       <c r="D14" s="3">
-        <f>VLOOKUP($B14,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B14,Grades!$O:$S,3,0)</f>
         <v>9832</v>
       </c>
       <c r="E14" s="3">
-        <f>VLOOKUP($B14,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B14,Grades!$O:$S,4,0)</f>
         <v>80.31</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f>VLOOKUP($B14,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B14,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4700,19 +4787,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>VLOOKUP(B15,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B15,Grades!O:S,2,0)</f>
         <v>Emma</v>
       </c>
       <c r="D15" s="3">
-        <f>VLOOKUP($B15,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B15,Grades!$O:$S,3,0)</f>
         <v>8187</v>
       </c>
       <c r="E15" s="3">
-        <f>VLOOKUP($B15,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B15,Grades!$O:$S,4,0)</f>
         <v>79.08</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f>VLOOKUP($B15,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B15,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4721,19 +4808,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>VLOOKUP(B16,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B16,Grades!O:S,2,0)</f>
         <v>Ava</v>
       </c>
       <c r="D16" s="3">
-        <f>VLOOKUP($B16,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B16,Grades!$O:$S,3,0)</f>
         <v>8084</v>
       </c>
       <c r="E16" s="3">
-        <f>VLOOKUP($B16,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B16,Grades!$O:$S,4,0)</f>
         <v>78.91</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f>VLOOKUP($B16,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B16,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4742,19 +4829,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>VLOOKUP(B17,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B17,Grades!O:S,2,0)</f>
         <v>Charlotte</v>
       </c>
       <c r="D17" s="3">
-        <f>VLOOKUP($B17,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B17,Grades!$O:$S,3,0)</f>
         <v>9185</v>
       </c>
       <c r="E17" s="3">
-        <f>VLOOKUP($B17,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B17,Grades!$O:$S,4,0)</f>
         <v>78.2</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f>VLOOKUP($B17,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B17,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4763,19 +4850,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>VLOOKUP(B18,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B18,Grades!O:S,2,0)</f>
         <v>Oliver</v>
       </c>
       <c r="D18" s="3">
-        <f>VLOOKUP($B18,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B18,Grades!$O:$S,3,0)</f>
         <v>9221</v>
       </c>
       <c r="E18" s="3">
-        <f>VLOOKUP($B18,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B18,Grades!$O:$S,4,0)</f>
         <v>76.72</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f>VLOOKUP($B18,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B18,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4784,19 +4871,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>VLOOKUP(B19,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B19,Grades!O:S,2,0)</f>
         <v>Olivia</v>
       </c>
       <c r="D19" s="3">
-        <f>VLOOKUP($B19,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B19,Grades!$O:$S,3,0)</f>
         <v>9195</v>
       </c>
       <c r="E19" s="3">
-        <f>VLOOKUP($B19,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B19,Grades!$O:$S,4,0)</f>
         <v>76.099999999999994</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f>VLOOKUP($B19,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B19,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4805,19 +4892,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>VLOOKUP(B20,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B20,Grades!O:S,2,0)</f>
         <v>Elijah</v>
       </c>
       <c r="D20" s="3">
-        <f>VLOOKUP($B20,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B20,Grades!$O:$S,3,0)</f>
         <v>9257</v>
       </c>
       <c r="E20" s="3">
-        <f>VLOOKUP($B20,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B20,Grades!$O:$S,4,0)</f>
         <v>75.150000000000006</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f>VLOOKUP($B20,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B20,Grades!$O:$S,5,0)</f>
         <v>B</v>
       </c>
     </row>
@@ -4826,19 +4913,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>VLOOKUP(B21,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B21,Grades!O:S,2,0)</f>
         <v>Mia</v>
       </c>
       <c r="D21" s="3">
-        <f>VLOOKUP($B21,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B21,Grades!$O:$S,3,0)</f>
         <v>8965</v>
       </c>
       <c r="E21" s="3">
-        <f>VLOOKUP($B21,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B21,Grades!$O:$S,4,0)</f>
         <v>74.809999999999988</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f>VLOOKUP($B21,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B21,Grades!$O:$S,5,0)</f>
         <v>C</v>
       </c>
     </row>
@@ -4847,19 +4934,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>VLOOKUP(B22,Grades!N:R,2,0)</f>
+        <f>VLOOKUP(B22,Grades!O:S,2,0)</f>
         <v>Lucas</v>
       </c>
       <c r="D22" s="3">
-        <f>VLOOKUP($B22,Grades!$N:$R,3,0)</f>
+        <f>VLOOKUP($B22,Grades!$O:$S,3,0)</f>
         <v>7514</v>
       </c>
       <c r="E22" s="3">
-        <f>VLOOKUP($B22,Grades!$N:$R,4,0)</f>
+        <f>VLOOKUP($B22,Grades!$O:$S,4,0)</f>
         <v>70.02000000000001</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f>VLOOKUP($B22,Grades!$N:$R,5,0)</f>
+        <f>VLOOKUP($B22,Grades!$O:$S,5,0)</f>
         <v>C</v>
       </c>
     </row>
@@ -4877,21 +4964,22 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="23" max="24" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="27"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="24" max="25" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4931,24 +5019,24 @@
       <c r="M1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="11" t="str">
-        <f t="shared" ref="P1:P21" si="0">A1</f>
+      <c r="Q1" s="19" t="str">
+        <f t="shared" ref="Q1:Q21" si="0">A1</f>
         <v>Student ID</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7892</v>
       </c>
@@ -4991,39 +5079,39 @@
         <f>COUNTIF(L:L,L2)</f>
         <v>15</v>
       </c>
-      <c r="N2" s="8">
+      <c r="O2" s="21">
         <f>RANK(K2,K:K)</f>
         <v>4</v>
       </c>
-      <c r="O2" s="8" t="str">
+      <c r="P2" s="22" t="str">
         <f>VLOOKUP(A2,'Student Roster'!A:B,2,0)</f>
         <v>Liam</v>
       </c>
-      <c r="P2" s="8">
+      <c r="Q2" s="22">
         <f t="shared" si="0"/>
         <v>7892</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="R2" s="22">
         <f>K2</f>
         <v>84.37</v>
       </c>
-      <c r="R2" s="8" t="str">
+      <c r="S2" s="23" t="str">
         <f>L2</f>
         <v>B</v>
       </c>
-      <c r="U2" s="8"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="8"/>
+      <c r="X2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="Y2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9904</v>
       </c>
@@ -5066,49 +5154,49 @@
         <f t="shared" ref="M3:M21" si="1">COUNTIF(L:L,L3)</f>
         <v>3</v>
       </c>
-      <c r="N3" s="8">
-        <f t="shared" ref="N3:N21" si="2">RANK(K3,K:K)</f>
+      <c r="O3" s="21">
+        <f t="shared" ref="O3:O21" si="2">RANK(K3,K:K)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="8" t="str">
+      <c r="P3" s="22" t="str">
         <f>VLOOKUP(A3,'Student Roster'!A:B,2,0)</f>
         <v>Noah</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="22">
         <f t="shared" si="0"/>
         <v>9904</v>
       </c>
-      <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q21" si="3">K3</f>
+      <c r="R3" s="22">
+        <f t="shared" ref="R3:R21" si="3">K3</f>
         <v>92.06</v>
       </c>
-      <c r="R3" s="8" t="str">
-        <f t="shared" ref="R3:R21" si="4">L3</f>
+      <c r="S3" s="23" t="str">
+        <f t="shared" ref="S3:S21" si="4">L3</f>
         <v>A</v>
       </c>
-      <c r="U3" s="8">
+      <c r="V3" s="8">
         <v>70</v>
       </c>
-      <c r="V3" s="8">
+      <c r="W3" s="8">
         <v>75</v>
       </c>
-      <c r="W3" s="13" t="str">
-        <f>U3&amp;"-"&amp;V3</f>
+      <c r="X3" s="13" t="str">
+        <f>V3&amp;"-"&amp;W3</f>
         <v>70-75</v>
       </c>
-      <c r="X3" s="13">
-        <f>COUNTIFS($Q$2:$Q$21,"&gt;="&amp;U3,$Q$2:$Q$21,"&lt;"&amp;V3)</f>
+      <c r="Y3" s="13">
+        <f>COUNTIFS($R$2:$R$21,"&gt;="&amp;V3,$R$2:$R$21,"&lt;"&amp;W3)</f>
         <v>2</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="10">
-        <f>VLOOKUP(AA3,L:M,2,0)</f>
+      <c r="AC3" s="10">
+        <f>VLOOKUP(AB3,L:M,2,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9221</v>
       </c>
@@ -5151,49 +5239,49 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O4" s="8" t="str">
+      <c r="P4" s="22" t="str">
         <f>VLOOKUP(A4,'Student Roster'!A:B,2,0)</f>
         <v>Oliver</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="22">
         <f t="shared" si="0"/>
         <v>9221</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="22">
         <f t="shared" si="3"/>
         <v>76.72</v>
       </c>
-      <c r="R4" s="8" t="str">
+      <c r="S4" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
-      <c r="U4" s="8">
+      <c r="V4" s="8">
         <v>75</v>
       </c>
-      <c r="V4" s="8">
+      <c r="W4" s="8">
         <v>80</v>
       </c>
-      <c r="W4" s="13" t="str">
-        <f t="shared" ref="W4:W8" si="5">U4&amp;"-"&amp;V4</f>
+      <c r="X4" s="13" t="str">
+        <f t="shared" ref="X4:X8" si="5">V4&amp;"-"&amp;W4</f>
         <v>75-80</v>
       </c>
-      <c r="X4" s="13">
-        <f>COUNTIFS($Q$2:$Q$21,"&gt;="&amp;U4,$Q$2:$Q$21,"&lt;"&amp;V4)</f>
+      <c r="Y4" s="13">
+        <f>COUNTIFS($R$2:$R$21,"&gt;="&amp;V4,$R$2:$R$21,"&lt;"&amp;W4)</f>
         <v>6</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="10">
-        <f>VLOOKUP(AA4,L:M,2,0)</f>
+      <c r="AC4" s="10">
+        <f>VLOOKUP(AB4,L:M,2,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9257</v>
       </c>
@@ -5236,49 +5324,49 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O5" s="8" t="str">
+      <c r="P5" s="22" t="str">
         <f>VLOOKUP(A5,'Student Roster'!A:B,2,0)</f>
         <v>Elijah</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="22">
         <f t="shared" si="0"/>
         <v>9257</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="22">
         <f t="shared" si="3"/>
         <v>75.150000000000006</v>
       </c>
-      <c r="R5" s="8" t="str">
+      <c r="S5" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" s="8">
         <v>80</v>
       </c>
-      <c r="V5" s="8">
+      <c r="W5" s="8">
         <v>85</v>
       </c>
-      <c r="W5" s="13" t="str">
+      <c r="X5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>80-85</v>
       </c>
-      <c r="X5" s="13">
-        <f t="shared" ref="X5:X8" si="6">COUNTIFS($Q$2:$Q$21,"&gt;="&amp;U5,$Q$2:$Q$21,"&lt;"&amp;V5)</f>
+      <c r="Y5" s="13">
+        <f t="shared" ref="Y5:Y8" si="6">COUNTIFS($R$2:$R$21,"&gt;="&amp;V5,$R$2:$R$21,"&lt;"&amp;W5)</f>
         <v>9</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AB5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="10">
-        <f>VLOOKUP(AA5,L:M,2,0)</f>
+      <c r="AC5" s="10">
+        <f>VLOOKUP(AB5,L:M,2,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7442</v>
       </c>
@@ -5321,49 +5409,49 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="21">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O6" s="8" t="str">
+      <c r="P6" s="22" t="str">
         <f>VLOOKUP(A6,'Student Roster'!A:B,2,0)</f>
         <v>William</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="22">
         <f t="shared" si="0"/>
         <v>7442</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="22">
         <f t="shared" si="3"/>
         <v>82.210000000000008</v>
       </c>
-      <c r="R6" s="8" t="str">
+      <c r="S6" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
-      <c r="U6" s="8">
+      <c r="V6" s="8">
         <v>85</v>
       </c>
-      <c r="V6" s="8">
+      <c r="W6" s="8">
         <v>90</v>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="X6" s="13" t="str">
         <f t="shared" si="5"/>
         <v>85-90</v>
       </c>
-      <c r="X6" s="13">
+      <c r="Y6" s="13">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AB6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AB6" s="10" t="e">
-        <f>VLOOKUP(AA6,L:M,2,0)</f>
+      <c r="AC6" s="10" t="e">
+        <f>VLOOKUP(AB6,L:M,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8116</v>
       </c>
@@ -5406,49 +5494,49 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="21">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O7" s="8" t="str">
+      <c r="P7" s="22" t="str">
         <f>VLOOKUP(A7,'Student Roster'!A:B,2,0)</f>
         <v>James</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="22">
         <f t="shared" si="0"/>
         <v>8116</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="22">
         <f t="shared" si="3"/>
         <v>87.86999999999999</v>
       </c>
-      <c r="R7" s="8" t="str">
+      <c r="S7" s="23" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" s="8">
         <v>90</v>
       </c>
-      <c r="V7" s="8">
+      <c r="W7" s="8">
         <v>95</v>
       </c>
-      <c r="W7" s="13" t="str">
+      <c r="X7" s="13" t="str">
         <f t="shared" si="5"/>
         <v>90-95</v>
       </c>
-      <c r="X7" s="13">
+      <c r="Y7" s="13">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AB7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="10" t="e">
-        <f>VLOOKUP(AA7,L:M,2,0)</f>
+      <c r="AC7" s="10" t="e">
+        <f>VLOOKUP(AB7,L:M,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9817</v>
       </c>
@@ -5491,42 +5579,42 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O8" s="8" t="str">
+      <c r="P8" s="22" t="str">
         <f>VLOOKUP(A8,'Student Roster'!A:B,2,0)</f>
         <v>Benjamin</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="22">
         <f t="shared" si="0"/>
         <v>9817</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="22">
         <f t="shared" si="3"/>
         <v>81.220000000000013</v>
       </c>
-      <c r="R8" s="8" t="str">
+      <c r="S8" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <v>95</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <v>100</v>
       </c>
-      <c r="W8" s="13" t="str">
+      <c r="X8" s="13" t="str">
         <f t="shared" si="5"/>
         <v>95-100</v>
       </c>
-      <c r="X8" s="13">
+      <c r="Y8" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7514</v>
       </c>
@@ -5569,37 +5657,37 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O9" s="8" t="str">
+      <c r="P9" s="22" t="str">
         <f>VLOOKUP(A9,'Student Roster'!A:B,2,0)</f>
         <v>Lucas</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="22">
         <f t="shared" si="0"/>
         <v>7514</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="22">
         <f t="shared" si="3"/>
         <v>70.02000000000001</v>
       </c>
-      <c r="R9" s="8" t="str">
+      <c r="S9" s="23" t="str">
         <f t="shared" si="4"/>
         <v>C</v>
       </c>
-      <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="14" t="s">
+      <c r="W9" s="8"/>
+      <c r="X9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="X9" s="15">
-        <f>SUM(X3:X8)</f>
+      <c r="Y9" s="15">
+        <f>SUM(Y3:Y8)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9832</v>
       </c>
@@ -5642,28 +5730,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O10" s="8" t="str">
+      <c r="P10" s="22" t="str">
         <f>VLOOKUP(A10,'Student Roster'!A:B,2,0)</f>
         <v>Henry</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="22">
         <f t="shared" si="0"/>
         <v>9832</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="22">
         <f t="shared" si="3"/>
         <v>80.31</v>
       </c>
-      <c r="R10" s="8" t="str">
+      <c r="S10" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9369</v>
       </c>
@@ -5706,28 +5794,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="21">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O11" s="8" t="str">
+      <c r="P11" s="22" t="str">
         <f>VLOOKUP(A11,'Student Roster'!A:B,2,0)</f>
         <v>Alexander</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="22">
         <f t="shared" si="0"/>
         <v>9369</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="22">
         <f t="shared" si="3"/>
         <v>83.42</v>
       </c>
-      <c r="R11" s="8" t="str">
+      <c r="S11" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9195</v>
       </c>
@@ -5770,28 +5858,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N12" s="8">
+      <c r="O12" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="O12" s="8" t="str">
+      <c r="P12" s="22" t="str">
         <f>VLOOKUP(A12,'Student Roster'!A:B,2,0)</f>
         <v>Olivia</v>
       </c>
-      <c r="P12" s="8">
+      <c r="Q12" s="22">
         <f t="shared" si="0"/>
         <v>9195</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="22">
         <f t="shared" si="3"/>
         <v>76.099999999999994</v>
       </c>
-      <c r="R12" s="8" t="str">
+      <c r="S12" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8187</v>
       </c>
@@ -5834,28 +5922,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N13" s="8">
+      <c r="O13" s="21">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O13" s="8" t="str">
+      <c r="P13" s="22" t="str">
         <f>VLOOKUP(A13,'Student Roster'!A:B,2,0)</f>
         <v>Emma</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="22">
         <f t="shared" si="0"/>
         <v>8187</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="22">
         <f t="shared" si="3"/>
         <v>79.08</v>
       </c>
-      <c r="R13" s="8" t="str">
+      <c r="S13" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8084</v>
       </c>
@@ -5898,28 +5986,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N14" s="8">
+      <c r="O14" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O14" s="8" t="str">
+      <c r="P14" s="22" t="str">
         <f>VLOOKUP(A14,'Student Roster'!A:B,2,0)</f>
         <v>Ava</v>
       </c>
-      <c r="P14" s="8">
+      <c r="Q14" s="22">
         <f t="shared" si="0"/>
         <v>8084</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="R14" s="22">
         <f t="shared" si="3"/>
         <v>78.91</v>
       </c>
-      <c r="R14" s="8" t="str">
+      <c r="S14" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9185</v>
       </c>
@@ -5962,28 +6050,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N15" s="8">
+      <c r="O15" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O15" s="8" t="str">
+      <c r="P15" s="22" t="str">
         <f>VLOOKUP(A15,'Student Roster'!A:B,2,0)</f>
         <v>Charlotte</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="22">
         <f t="shared" si="0"/>
         <v>9185</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="22">
         <f t="shared" si="3"/>
         <v>78.2</v>
       </c>
-      <c r="R15" s="8" t="str">
+      <c r="S15" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8205</v>
       </c>
@@ -6026,28 +6114,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O16" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O16" s="8" t="str">
+      <c r="P16" s="22" t="str">
         <f>VLOOKUP(A16,'Student Roster'!A:B,2,0)</f>
         <v>Sophia</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="22">
         <f t="shared" si="0"/>
         <v>8205</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="22">
         <f t="shared" si="3"/>
         <v>81.429999999999993</v>
       </c>
-      <c r="R16" s="8" t="str">
+      <c r="S16" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7249</v>
       </c>
@@ -6090,28 +6178,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N17" s="8">
+      <c r="O17" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O17" s="8" t="str">
+      <c r="P17" s="22" t="str">
         <f>VLOOKUP(A17,'Student Roster'!A:B,2,0)</f>
         <v>Amelia</v>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="22">
         <f t="shared" si="0"/>
         <v>7249</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="22">
         <f t="shared" si="3"/>
         <v>84.039999999999992</v>
       </c>
-      <c r="R17" s="8" t="str">
+      <c r="S17" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9510</v>
       </c>
@@ -6154,28 +6242,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N18" s="8">
+      <c r="O18" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O18" s="8" t="str">
+      <c r="P18" s="22" t="str">
         <f>VLOOKUP(A18,'Student Roster'!A:B,2,0)</f>
         <v>Isabella</v>
       </c>
-      <c r="P18" s="8">
+      <c r="Q18" s="22">
         <f t="shared" si="0"/>
         <v>9510</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="R18" s="22">
         <f t="shared" si="3"/>
         <v>81.239999999999995</v>
       </c>
-      <c r="R18" s="8" t="str">
+      <c r="S18" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8965</v>
       </c>
@@ -6218,28 +6306,28 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N19" s="8">
+      <c r="O19" s="21">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O19" s="8" t="str">
+      <c r="P19" s="22" t="str">
         <f>VLOOKUP(A19,'Student Roster'!A:B,2,0)</f>
         <v>Mia</v>
       </c>
-      <c r="P19" s="8">
+      <c r="Q19" s="22">
         <f t="shared" si="0"/>
         <v>8965</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="R19" s="22">
         <f t="shared" si="3"/>
         <v>74.809999999999988</v>
       </c>
-      <c r="R19" s="8" t="str">
+      <c r="S19" s="23" t="str">
         <f t="shared" si="4"/>
         <v>C</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9128</v>
       </c>
@@ -6282,28 +6370,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N20" s="8">
+      <c r="O20" s="21">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O20" s="8" t="str">
+      <c r="P20" s="22" t="str">
         <f>VLOOKUP(A20,'Student Roster'!A:B,2,0)</f>
         <v>Evelyn</v>
       </c>
-      <c r="P20" s="8">
+      <c r="Q20" s="22">
         <f t="shared" si="0"/>
         <v>9128</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="22">
         <f t="shared" si="3"/>
         <v>83.399999999999991</v>
       </c>
-      <c r="R20" s="8" t="str">
+      <c r="S20" s="23" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7976</v>
       </c>
@@ -6346,23 +6434,23 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N21" s="8">
+      <c r="O21" s="24">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O21" s="8" t="str">
+      <c r="P21" s="25" t="str">
         <f>VLOOKUP(A21,'Student Roster'!A:B,2,0)</f>
         <v>Harper</v>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="25">
         <f t="shared" si="0"/>
         <v>7976</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="R21" s="25">
         <f t="shared" si="3"/>
         <v>90.68</v>
       </c>
-      <c r="R21" s="8" t="str">
+      <c r="S21" s="26" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
